--- a/biology/Botanique/Dioon/Dioon.xlsx
+++ b/biology/Botanique/Dioon/Dioon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioon est un genre de Cycas de la famille Zamiaceae. Il est originaire du Mexique et d'Amérique centrale. Leurs habitats comprennent les forêts tropicales, les forêts de pins et de chênes, et coteaux secs, des canyons et des dunes côtières.
 Tous les genres des Cycadales, dont le Dioon sont dioïque, au tronc cylindriques, généralement avec beaucoup de feuilles. Les feuilles sont grandes et persistantes aux nombreux folioles.
@@ -516,9 +528,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (26 juin 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (26 juin 2014) :
 Dioon angustifolium Miq.
 Dioon argenteum T.J. Greg., Chemnick, Salas-Mor. &amp; Vovides
 Dioon califanoi De Luca &amp; Sabato
@@ -533,7 +547,7 @@
 Dioon spinulosum Dyer ex Eichler
 Dioon stevensonii Nic.-Mor. &amp; Vovides
 Dioon tomasellii De Luca, Sabato &amp; Vázq. Torres
-Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2014)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (26 juin 2014) :
 Dioon angustifolium Miq. (1848)
 Dioon argenteum T.J.Greg. &amp; al. (2003)
 Dioon califanoi De Luca &amp; Sabato (1979)
@@ -548,7 +562,7 @@
 Dioon spinulosum Dyer ex Eichl. (1883)
 Dioon stevensonii Nic.-Mor. &amp; Vovides (2009)
 Dioon tomasellii De Luca, Sabato &amp; Vázq.Torres (1984)
-Selon NCBI  (26 juin 2014)[4] :
+Selon NCBI  (26 juin 2014) :
 Dioon angustifolium
 Dioon argenteum
 Dioon califanoi
@@ -563,7 +577,7 @@
 Dioon spinulosum
 Dioon stevensonii
 Dioon tomasellii
-Selon The Plant List            (26 juin 2014)[5] :
+Selon The Plant List            (26 juin 2014) :
 Dioon argenteum T.J.Greg. &amp; al.
 Dioon califanoi De Luca &amp; Sabato
 Dioon edule Lindl.
@@ -571,7 +585,7 @@
 Dioon purpusii Rose
 Dioon rzedowskii De Luca &amp; al.
 Dioon spinulosum Dyer ex Eichl.
-Selon Tropicos                                           (26 juin 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 Dioon aculeatum Lem.
 Dioon angustifolium Miq.
 Dioon argenteum T.J. Greg., Chemnick, Salas-Mor. &amp; Vovides
